--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0270 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0270 - Searching profiling nasabah & memiliki sales kelolaan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166709B1-61A1-4CE3-9E18-1AF020DA543F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D630E35C-1B44-49B1-8928-7289E8E44209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0270" sheetId="2" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="9">
-        <v>20037</v>
+        <v>35758</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>9</v>
@@ -628,13 +628,13 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="9">
-        <v>9003982023</v>
+        <v>9720826341</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="9">
-        <v>9936964558</v>
+      <c r="O2" s="10">
+        <v>9669179367</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="4"/>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="F3" s="9">
-        <v>37400</v>
+        <v>32362</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>9</v>
@@ -690,7 +690,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="9">
-        <v>20037</v>
+        <v>35758</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
@@ -709,13 +709,13 @@
         <v>23</v>
       </c>
       <c r="M4" s="9">
-        <v>9003982023</v>
+        <v>9720826341</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="9">
-        <v>9936964558</v>
+      <c r="O4" s="10">
+        <v>9669179367</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="2"/>
